--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2124</v>
+        <v>11.8452</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.9497</v>
+        <v>4.916899999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.766500000000001</v>
+        <v>8.610400000000006</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.811100000000001</v>
+        <v>6.761300000000003</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.528800000000001</v>
+        <v>-7.761000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>6.396899999999999</v>
+        <v>6.438799999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.302</v>
+        <v>13.06649999999999</v>
       </c>
     </row>
     <row r="21">
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.313299999999994</v>
+        <v>5.371899999999995</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
